--- a/data/output/FV2504_FV2410/UTILMD/55223.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55223.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5258" uniqueCount="378">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="378">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1288,6 +1288,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U239" totalsRowShown="0">
+  <autoFilter ref="A1:U239"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1577,7 +1607,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13073,5 +13106,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55223.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55223.xlsx
@@ -1962,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1985,6 +1985,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1993,6 +1996,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2435,7 +2441,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3161,7 +3167,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3365,7 +3371,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3563,7 +3569,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3871,7 +3877,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4071,7 +4077,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4445,7 +4451,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4757,7 +4763,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4953,7 +4959,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5153,7 +5159,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5353,7 +5359,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5499,7 +5505,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5655,7 +5661,7 @@
         <v>327</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5839,24 +5845,24 @@
       <c r="B69" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>343</v>
       </c>
       <c r="M69" s="5"/>
@@ -5874,33 +5880,33 @@
       <c r="A70" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>343</v>
       </c>
       <c r="M70" s="5"/>
@@ -5918,33 +5924,33 @@
       <c r="A71" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>343</v>
       </c>
       <c r="M71" s="5"/>
@@ -5962,31 +5968,31 @@
       <c r="A72" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8" t="s">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>343</v>
       </c>
       <c r="M72" s="5"/>
@@ -6014,29 +6020,29 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="V73" s="11"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -6052,35 +6058,35 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="V74" s="11"/>
+      <c r="U74" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -6096,35 +6102,35 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="U75" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="V75" s="11"/>
+      <c r="U75" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -6140,33 +6146,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11" t="s">
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="V76" s="11"/>
+      <c r="U76" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
@@ -6191,7 +6197,7 @@
         <v>328</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6401,7 +6407,7 @@
         <v>330</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6611,7 +6617,7 @@
         <v>331</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6761,7 +6767,7 @@
         <v>332</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7029,7 +7035,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7271,52 +7277,52 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K98" s="5"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V98" s="5"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7495,52 +7501,52 @@
       <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K102" s="5"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K102" s="2"/>
       <c r="L102" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O102" s="5" t="s">
+      <c r="O102" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P102" s="5"/>
+      <c r="P102" s="2"/>
       <c r="Q102" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V102" s="5"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7739,7 +7745,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7981,52 +7987,52 @@
       <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K111" s="2"/>
       <c r="L111" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O111" s="5" t="s">
+      <c r="O111" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P111" s="5"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V111" s="5"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -8205,52 +8211,52 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K115" s="5"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K115" s="2"/>
       <c r="L115" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O115" s="5" t="s">
+      <c r="O115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V115" s="5"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -8451,7 +8457,7 @@
         <v>334</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8657,7 +8663,7 @@
         <v>335</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8863,7 +8869,7 @@
         <v>335</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9177,7 +9183,7 @@
         <v>332</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9483,7 +9489,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9723,52 +9729,52 @@
       <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="2"/>
       <c r="F144" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K144" s="5"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K144" s="2"/>
       <c r="L144" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M144" s="5" t="s">
+      <c r="M144" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="5" t="s">
+      <c r="O144" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P144" s="5"/>
+      <c r="P144" s="2"/>
       <c r="Q144" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V144" s="5"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V144" s="2"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="5" t="s">
@@ -9907,7 +9913,7 @@
         <v>336</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10035,54 +10041,54 @@
       <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K150" s="2" t="s">
         <v>337</v>
       </c>
       <c r="L150" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P150" s="5"/>
+      <c r="P150" s="2"/>
       <c r="Q150" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="V150" s="5" t="s">
+      <c r="V150" s="2" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10207,52 +10213,52 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K153" s="5"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O153" s="5" t="s">
+      <c r="O153" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P153" s="5"/>
+      <c r="P153" s="2"/>
       <c r="Q153" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V153" s="5"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -10393,7 +10399,7 @@
         <v>338</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10661,7 +10667,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10903,52 +10909,52 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K166" s="5"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K166" s="2"/>
       <c r="L166" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P166" s="5"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V166" s="5"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -11131,52 +11137,52 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K170" s="5"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K170" s="2"/>
       <c r="L170" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O170" s="5" t="s">
+      <c r="O170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P170" s="5"/>
+      <c r="P170" s="2"/>
       <c r="Q170" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V170" s="5"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -11379,7 +11385,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11581,7 +11587,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11783,7 +11789,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12095,7 +12101,7 @@
         <v>338</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12403,7 +12409,7 @@
         <v>341</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12531,52 +12537,52 @@
       <c r="V196" s="5"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="2"/>
       <c r="F197" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K197" s="5"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K197" s="2"/>
       <c r="L197" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M197" s="5" t="s">
+      <c r="M197" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O197" s="5" t="s">
+      <c r="O197" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P197" s="5"/>
+      <c r="P197" s="2"/>
       <c r="Q197" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V197" s="5"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V197" s="2"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -12699,52 +12705,52 @@
       </c>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K200" s="5"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K200" s="2"/>
       <c r="L200" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O200" s="5" t="s">
+      <c r="O200" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P200" s="5"/>
+      <c r="P200" s="2"/>
       <c r="Q200" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V200" s="5"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="5" t="s">
@@ -12885,7 +12891,7 @@
         <v>338</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -13153,7 +13159,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13395,52 +13401,52 @@
       <c r="V212" s="5"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K213" s="5"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K213" s="2"/>
       <c r="L213" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M213" s="5" t="s">
+      <c r="M213" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N213" s="5" t="s">
+      <c r="N213" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O213" s="5" t="s">
+      <c r="O213" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P213" s="5"/>
+      <c r="P213" s="2"/>
       <c r="Q213" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V213" s="5"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="5" t="s">
@@ -13623,52 +13629,52 @@
       <c r="V216" s="5"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E217" s="5"/>
+      <c r="E217" s="2"/>
       <c r="F217" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K217" s="5"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K217" s="2"/>
       <c r="L217" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M217" s="5" t="s">
+      <c r="M217" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N217" s="5" t="s">
+      <c r="N217" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O217" s="5" t="s">
+      <c r="O217" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P217" s="5"/>
+      <c r="P217" s="2"/>
       <c r="Q217" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V217" s="5"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V217" s="2"/>
     </row>
     <row r="218" spans="1:22">
       <c r="A218" s="5" t="s">
@@ -13871,7 +13877,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -14073,7 +14079,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14385,7 +14391,7 @@
         <v>338</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14671,48 +14677,48 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="2"/>
+      <c r="D237" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K237" s="5"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K237" s="2"/>
       <c r="L237" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5" t="s">
+      <c r="N237" s="2"/>
+      <c r="O237" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P237" s="5"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V237" s="5"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
